--- a/NformTester/NformTester/keywordscripts/TST1335_ExportOptionForExportingDevicesInFlatFile.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1335_ExportOptionForExportingDevicesInFlatFile.xlsx
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8134" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8135" uniqueCount="882">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3753,14 +3753,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SearchStart$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SearchEnd$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>;Button should be enabled.</t>
   </si>
   <si>
@@ -3777,9 +3769,6 @@
     <t>"C:/Nform/user/export/UPS_DATA.csv"</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>!Device Name</t>
   </si>
   <si>
@@ -3861,19 +3850,44 @@
     <t>"C:/Nform/user/export/UPS_DATA_Tab.csv"</t>
   </si>
   <si>
+    <t xml:space="preserve">;Check Tilde (~)) to export. </t>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\UPS_DATA_Tilde.csv"</t>
+  </si>
+  <si>
+    <t>"C:/Nform/user/export/UPS_DATA_Tilde.csv"</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SearchStart$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SearchEnd$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:/Nform/user/export/UPS_DATA.csv"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22-142</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">;Check Tilde (~)) to export. </t>
-  </si>
-  <si>
-    <t>"C:\Nform\user\export\UPS_DATA_Tilde.csv"</t>
-  </si>
-  <si>
-    <t>"C:/Nform/user/export/UPS_DATA_Tilde.csv"</t>
-  </si>
-  <si>
-    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4101,63 +4115,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -4954,8 +4912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4966,7 +4924,7 @@
     <col min="5" max="5" width="32.375" customWidth="1"/>
     <col min="6" max="6" width="28.125" customWidth="1"/>
     <col min="7" max="7" width="23.25" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="8" max="8" width="34.25" customWidth="1"/>
     <col min="9" max="9" width="26" customWidth="1"/>
     <col min="10" max="10" width="26.875" customWidth="1"/>
   </cols>
@@ -5145,7 +5103,7 @@
         <v>836</v>
       </c>
       <c r="B6" s="10">
-        <v>41045</v>
+        <v>41446</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
@@ -5196,10 +5154,10 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>838</v>
+        <v>875</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>880</v>
       </c>
       <c r="C8" s="5">
         <v>7</v>
@@ -5218,10 +5176,10 @@
         <v>839</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>840</v>
+        <v>876</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>841</v>
+        <v>877</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -5233,16 +5191,14 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>90</v>
-      </c>
+        <v>837</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -5259,8 +5215,12 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="C10" s="5">
         <v>9</v>
       </c>
@@ -5288,10 +5248,8 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="15"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
@@ -5320,7 +5278,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="5">
@@ -5355,7 +5313,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13" s="15"/>
       <c r="C13" s="5">
@@ -5390,7 +5348,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B14" s="15"/>
       <c r="C14" s="5">
@@ -5421,7 +5379,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="15"/>
       <c r="C15" s="5">
@@ -5440,7 +5398,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -5454,7 +5412,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="5">
@@ -5488,10 +5446,10 @@
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="3"/>
-      <c r="B17" s="15" t="s">
-        <v>97</v>
-      </c>
+      <c r="A17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="5">
         <v>16</v>
       </c>
@@ -5521,7 +5479,7 @@
     <row r="18" spans="1:15">
       <c r="A18" s="3"/>
       <c r="B18" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" s="5">
         <v>17</v>
@@ -5550,11 +5508,9 @@
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="A19" s="3"/>
       <c r="B19" s="15" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C19" s="5">
         <v>18</v>
@@ -5584,9 +5540,11 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="C20" s="5">
         <v>19</v>
       </c>
@@ -5615,7 +5573,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="5">
@@ -5645,11 +5603,15 @@
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="15">
+      <c r="A22" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="5">
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="5"/>
@@ -5673,17 +5635,19 @@
         <v>102</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>846</v>
+        <v>878</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>847</v>
-      </c>
-      <c r="J23" s="5"/>
+        <v>879</v>
+      </c>
+      <c r="J23" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
@@ -5700,17 +5664,19 @@
         <v>102</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="J24" s="5"/>
+        <v>845</v>
+      </c>
+      <c r="J24" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
@@ -5727,17 +5693,19 @@
         <v>102</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="J25" s="5"/>
+      <c r="J25" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
@@ -5754,17 +5722,19 @@
         <v>102</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="J26" s="5"/>
+        <v>847</v>
+      </c>
+      <c r="J26" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
@@ -5781,17 +5751,19 @@
         <v>102</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>848</v>
+      </c>
+      <c r="J27" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -5808,17 +5780,19 @@
         <v>102</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>849</v>
+      </c>
+      <c r="J28" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -5835,17 +5809,19 @@
         <v>102</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J29" s="5"/>
+      <c r="J29" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -5862,17 +5838,19 @@
         <v>102</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="5"/>
+      <c r="J30" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -5889,17 +5867,19 @@
         <v>102</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="J31" s="5"/>
+        <v>850</v>
+      </c>
+      <c r="J31" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -5916,17 +5896,19 @@
         <v>102</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="J32" s="5"/>
+        <v>851</v>
+      </c>
+      <c r="J32" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
@@ -5943,17 +5925,19 @@
         <v>102</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="J33" s="5"/>
+        <v>852</v>
+      </c>
+      <c r="J33" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
@@ -5970,17 +5954,19 @@
         <v>102</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>853</v>
+      </c>
+      <c r="J34" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -5997,17 +5983,19 @@
         <v>102</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="J35" s="5"/>
+        <v>854</v>
+      </c>
+      <c r="J35" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -6024,17 +6012,19 @@
         <v>102</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="J36" s="5"/>
+        <v>855</v>
+      </c>
+      <c r="J36" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
@@ -6048,7 +6038,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -6072,15 +6062,15 @@
         <v>822</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -6099,15 +6089,15 @@
         <v>822</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -6123,7 +6113,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="5"/>
@@ -6198,10 +6188,10 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>279</v>
@@ -6210,7 +6200,7 @@
         <v>108</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
@@ -6227,10 +6217,10 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>176</v>
@@ -6266,7 +6256,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
@@ -6449,7 +6439,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="5"/>
@@ -6625,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
@@ -6808,7 +6798,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="5"/>
@@ -6832,17 +6822,19 @@
         <v>102</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="J66" s="5"/>
+      <c r="J66" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
@@ -6859,17 +6851,19 @@
         <v>102</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>845</v>
+      </c>
+      <c r="J67" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
@@ -6886,17 +6880,19 @@
         <v>102</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="J68" s="5"/>
+        <v>846</v>
+      </c>
+      <c r="J68" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
@@ -6913,17 +6909,19 @@
         <v>102</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="J69" s="5"/>
+        <v>847</v>
+      </c>
+      <c r="J69" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
@@ -6940,17 +6938,19 @@
         <v>102</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>848</v>
+      </c>
+      <c r="J70" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
@@ -6967,17 +6967,19 @@
         <v>102</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>849</v>
+      </c>
+      <c r="J71" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
@@ -6994,17 +6996,19 @@
         <v>102</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J72" s="5"/>
+      <c r="J72" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
@@ -7021,17 +7025,19 @@
         <v>102</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J73" s="5"/>
+      <c r="J73" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
@@ -7048,17 +7054,19 @@
         <v>102</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="J74" s="5"/>
+        <v>850</v>
+      </c>
+      <c r="J74" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
@@ -7075,17 +7083,19 @@
         <v>102</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="J75" s="5"/>
+        <v>851</v>
+      </c>
+      <c r="J75" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
@@ -7102,17 +7112,19 @@
         <v>102</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>852</v>
+      </c>
+      <c r="J76" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
@@ -7129,17 +7141,19 @@
         <v>102</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="J77" s="5"/>
+        <v>853</v>
+      </c>
+      <c r="J77" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
@@ -7156,17 +7170,19 @@
         <v>102</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="J78" s="5"/>
+        <v>854</v>
+      </c>
+      <c r="J78" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
@@ -7183,17 +7199,19 @@
         <v>102</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>855</v>
+      </c>
+      <c r="J79" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
@@ -7207,7 +7225,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="5"/>
@@ -7383,7 +7401,7 @@
         <v>2</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
@@ -7566,7 +7584,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="5"/>
@@ -7590,17 +7608,19 @@
         <v>102</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>874</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>881</v>
+      </c>
+      <c r="J94" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
@@ -7617,17 +7637,19 @@
         <v>102</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="J95" s="5"/>
+        <v>845</v>
+      </c>
+      <c r="J95" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
@@ -7644,17 +7666,19 @@
         <v>102</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="J96" s="5"/>
+        <v>846</v>
+      </c>
+      <c r="J96" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
@@ -7671,17 +7695,19 @@
         <v>102</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="J97" s="5"/>
+        <v>847</v>
+      </c>
+      <c r="J97" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
@@ -7698,17 +7724,19 @@
         <v>102</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="J98" s="5"/>
+        <v>848</v>
+      </c>
+      <c r="J98" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
@@ -7725,17 +7753,19 @@
         <v>102</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="J99" s="5"/>
+        <v>849</v>
+      </c>
+      <c r="J99" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
@@ -7752,17 +7782,19 @@
         <v>102</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J100" s="5"/>
+      <c r="J100" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
@@ -7779,17 +7811,19 @@
         <v>102</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J101" s="5"/>
+      <c r="J101" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
@@ -7806,17 +7840,19 @@
         <v>102</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="J102" s="5"/>
+        <v>850</v>
+      </c>
+      <c r="J102" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
@@ -7833,17 +7869,19 @@
         <v>102</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="J103" s="5"/>
+        <v>851</v>
+      </c>
+      <c r="J103" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
@@ -7860,17 +7898,19 @@
         <v>102</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="J104" s="5"/>
+        <v>852</v>
+      </c>
+      <c r="J104" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
@@ -7887,17 +7927,19 @@
         <v>102</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="J105" s="5"/>
+        <v>853</v>
+      </c>
+      <c r="J105" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
@@ -7914,17 +7956,19 @@
         <v>102</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>854</v>
+      </c>
+      <c r="J106" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
@@ -7941,17 +7985,19 @@
         <v>102</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>855</v>
+      </c>
+      <c r="J107" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
@@ -7965,7 +8011,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="5"/>
@@ -8141,7 +8187,7 @@
         <v>2</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
@@ -8324,7 +8370,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="5"/>
@@ -8348,17 +8394,19 @@
         <v>102</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="J122" s="5"/>
+        <v>874</v>
+      </c>
+      <c r="J122" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
@@ -8375,17 +8423,19 @@
         <v>102</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="J123" s="5"/>
+        <v>845</v>
+      </c>
+      <c r="J123" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
@@ -8402,17 +8452,19 @@
         <v>102</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>849</v>
-      </c>
-      <c r="J124" s="5"/>
+        <v>846</v>
+      </c>
+      <c r="J124" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
@@ -8429,17 +8481,19 @@
         <v>102</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="J125" s="5"/>
+        <v>847</v>
+      </c>
+      <c r="J125" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
@@ -8456,17 +8510,19 @@
         <v>102</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="J126" s="5"/>
+        <v>848</v>
+      </c>
+      <c r="J126" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
@@ -8483,17 +8539,19 @@
         <v>102</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="J127" s="5"/>
+        <v>849</v>
+      </c>
+      <c r="J127" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
@@ -8510,17 +8568,19 @@
         <v>102</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="J128" s="5"/>
+      <c r="J128" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
@@ -8537,17 +8597,19 @@
         <v>102</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J129" s="5"/>
+      <c r="J129" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
@@ -8564,17 +8626,19 @@
         <v>102</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="J130" s="5"/>
+        <v>850</v>
+      </c>
+      <c r="J130" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
@@ -8591,17 +8655,19 @@
         <v>102</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>854</v>
-      </c>
-      <c r="J131" s="5"/>
+        <v>851</v>
+      </c>
+      <c r="J131" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
@@ -8618,17 +8684,19 @@
         <v>102</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="J132" s="5"/>
+        <v>852</v>
+      </c>
+      <c r="J132" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
@@ -8645,17 +8713,19 @@
         <v>102</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>856</v>
-      </c>
-      <c r="J133" s="5"/>
+        <v>853</v>
+      </c>
+      <c r="J133" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
@@ -8672,17 +8742,19 @@
         <v>102</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>857</v>
-      </c>
-      <c r="J134" s="5"/>
+        <v>854</v>
+      </c>
+      <c r="J134" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
@@ -8699,17 +8771,19 @@
         <v>102</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="J135" s="5"/>
+        <v>855</v>
+      </c>
+      <c r="J135" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
@@ -8823,10 +8897,10 @@
         <v>139</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>279</v>
@@ -8835,7 +8909,7 @@
         <v>108</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
@@ -8852,10 +8926,10 @@
         <v>140</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>24</v>
@@ -8879,7 +8953,7 @@
         <v>141</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>649</v>
@@ -8906,10 +8980,10 @@
         <v>142</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>19</v>
@@ -9245,50 +9319,50 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N165">
-    <cfRule type="cellIs" dxfId="19" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="cellIs" dxfId="17" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N135">
-    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N136:N144">
-    <cfRule type="cellIs" dxfId="11" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N136:N143">
-    <cfRule type="cellIs" dxfId="7" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N140:N142">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/NformTester/NformTester/keywordscripts/TST1335_ExportOptionForExportingDevicesInFlatFile.xlsx
+++ b/NformTester/NformTester/keywordscripts/TST1335_ExportOptionForExportingDevicesInFlatFile.xlsx
@@ -1208,7 +1208,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8135" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7992" uniqueCount="879">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3699,9 +3699,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Author</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -3746,9 +3743,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>MultiSearch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3879,10 +3873,6 @@
   </si>
   <si>
     <t>,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22-142</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4912,8 +4902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4996,23 +4986,21 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N2" s="7"/>
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>827</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>828</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -5022,28 +5010,26 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>831</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>832</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N3" s="7"/>
       <c r="O3" s="2"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>833</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>834</v>
       </c>
       <c r="C4" s="5">
         <v>3</v>
@@ -5066,14 +5052,12 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N4" s="7"/>
       <c r="O4" s="2"/>
     </row>
     <row r="5" spans="1:15" ht="15">
       <c r="A5" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B5" s="10">
         <v>40864</v>
@@ -5093,14 +5077,12 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N5" s="7"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="1:15" ht="15">
       <c r="A6" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B6" s="10">
         <v>41446</v>
@@ -5120,9 +5102,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N6" s="7"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="1:15" ht="15">
@@ -5147,18 +5127,14 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N7" s="7"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>880</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -5173,32 +5149,30 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N8" s="7"/>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -5209,9 +5183,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N9" s="7"/>
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15">
@@ -5242,9 +5214,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15">
@@ -5271,9 +5241,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="2"/>
     </row>
     <row r="12" spans="1:15">
@@ -5306,9 +5274,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:15">
@@ -5341,9 +5307,7 @@
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:15">
@@ -5372,9 +5336,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="2"/>
     </row>
     <row r="15" spans="1:15">
@@ -5398,16 +5360,14 @@
         <v>2</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="2"/>
     </row>
     <row r="16" spans="1:15">
@@ -5440,9 +5400,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N16" s="7"/>
       <c r="O16" s="2"/>
     </row>
     <row r="17" spans="1:15">
@@ -5471,9 +5429,7 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N17" s="7"/>
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15">
@@ -5502,9 +5458,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N18" s="7"/>
       <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15">
@@ -5533,9 +5487,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N19" s="7"/>
       <c r="O19" s="2"/>
     </row>
     <row r="20" spans="1:15">
@@ -5566,9 +5518,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N20" s="7"/>
       <c r="O20" s="2"/>
     </row>
     <row r="21" spans="1:15">
@@ -5597,9 +5547,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N21" s="7"/>
       <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:15" ht="15">
@@ -5611,7 +5559,7 @@
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="5"/>
@@ -5622,9 +5570,7 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N22" s="7"/>
       <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:15">
@@ -5635,15 +5581,15 @@
         <v>102</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J23" s="5" t="b">
         <v>1</v>
@@ -5651,9 +5597,7 @@
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N23" s="7"/>
       <c r="O23" s="2"/>
     </row>
     <row r="24" spans="1:15">
@@ -5664,15 +5608,15 @@
         <v>102</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J24" s="5" t="b">
         <v>1</v>
@@ -5680,9 +5624,7 @@
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N24" s="7"/>
       <c r="O24" s="2"/>
     </row>
     <row r="25" spans="1:15">
@@ -5693,15 +5635,15 @@
         <v>102</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>844</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>846</v>
       </c>
       <c r="J25" s="5" t="b">
         <v>1</v>
@@ -5709,9 +5651,7 @@
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N25" s="7"/>
       <c r="O25" s="2"/>
     </row>
     <row r="26" spans="1:15">
@@ -5722,15 +5662,15 @@
         <v>102</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J26" s="5" t="b">
         <v>1</v>
@@ -5738,9 +5678,7 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N26" s="7"/>
       <c r="O26" s="2"/>
     </row>
     <row r="27" spans="1:15">
@@ -5751,15 +5689,15 @@
         <v>102</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J27" s="5" t="b">
         <v>1</v>
@@ -5767,9 +5705,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N27" s="7"/>
       <c r="O27" s="2"/>
     </row>
     <row r="28" spans="1:15">
@@ -5780,15 +5716,15 @@
         <v>102</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J28" s="5" t="b">
         <v>1</v>
@@ -5796,9 +5732,7 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N28" s="7"/>
       <c r="O28" s="2"/>
     </row>
     <row r="29" spans="1:15">
@@ -5809,12 +5743,12 @@
         <v>102</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>346</v>
@@ -5825,9 +5759,7 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N29" s="7"/>
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15">
@@ -5838,12 +5770,12 @@
         <v>102</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I30" s="5" t="s">
         <v>49</v>
@@ -5854,9 +5786,7 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N30" s="7"/>
       <c r="O30" s="2"/>
     </row>
     <row r="31" spans="1:15">
@@ -5867,15 +5797,15 @@
         <v>102</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J31" s="5" t="b">
         <v>1</v>
@@ -5883,9 +5813,7 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N31" s="7"/>
       <c r="O31" s="2"/>
     </row>
     <row r="32" spans="1:15">
@@ -5896,15 +5824,15 @@
         <v>102</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J32" s="5" t="b">
         <v>1</v>
@@ -5912,9 +5840,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N32" s="7"/>
       <c r="O32" s="2"/>
     </row>
     <row r="33" spans="3:15">
@@ -5925,15 +5851,15 @@
         <v>102</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
       <c r="H33" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J33" s="5" t="b">
         <v>1</v>
@@ -5941,9 +5867,7 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N33" s="7"/>
       <c r="O33" s="2"/>
     </row>
     <row r="34" spans="3:15">
@@ -5954,15 +5878,15 @@
         <v>102</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="J34" s="5" t="b">
         <v>1</v>
@@ -5970,9 +5894,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N34" s="7"/>
       <c r="O34" s="2"/>
     </row>
     <row r="35" spans="3:15">
@@ -5983,15 +5905,15 @@
         <v>102</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J35" s="5" t="b">
         <v>1</v>
@@ -5999,9 +5921,7 @@
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N35" s="7"/>
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="3:15">
@@ -6012,15 +5932,15 @@
         <v>102</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
       <c r="H36" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J36" s="5" t="b">
         <v>1</v>
@@ -6028,9 +5948,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N36" s="7"/>
       <c r="O36" s="2"/>
     </row>
     <row r="37" spans="3:15" ht="15">
@@ -6038,7 +5956,7 @@
         <v>36</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -6049,9 +5967,7 @@
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N37" s="7"/>
       <c r="O37" s="2"/>
     </row>
     <row r="38" spans="3:15">
@@ -6062,23 +5978,21 @@
         <v>822</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N38" s="7"/>
       <c r="O38" s="2"/>
     </row>
     <row r="39" spans="3:15">
@@ -6089,23 +6003,21 @@
         <v>822</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="I39" s="11" t="s">
         <v>857</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>859</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N39" s="7"/>
       <c r="O39" s="2"/>
     </row>
     <row r="40" spans="3:15" ht="15">
@@ -6113,7 +6025,7 @@
         <v>39</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="5"/>
@@ -6124,9 +6036,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N40" s="7"/>
       <c r="O40" s="2"/>
     </row>
     <row r="41" spans="3:15">
@@ -6151,9 +6061,7 @@
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N41" s="7"/>
       <c r="O41" s="2"/>
     </row>
     <row r="42" spans="3:15">
@@ -6178,9 +6086,7 @@
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N42" s="7"/>
       <c r="O42" s="2"/>
     </row>
     <row r="43" spans="3:15">
@@ -6188,10 +6094,10 @@
         <v>42</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>279</v>
@@ -6200,16 +6106,14 @@
         <v>108</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="16" t="s">
-        <v>826</v>
-      </c>
+      <c r="N43" s="16"/>
       <c r="O43" s="2"/>
     </row>
     <row r="44" spans="3:15">
@@ -6217,10 +6121,10 @@
         <v>43</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>176</v>
@@ -6234,9 +6138,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N44" s="7"/>
       <c r="O44" s="2"/>
     </row>
     <row r="45" spans="3:15">
@@ -6256,16 +6158,14 @@
         <v>2</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N45" s="7"/>
       <c r="O45" s="2"/>
     </row>
     <row r="46" spans="3:15">
@@ -6294,9 +6194,7 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N46" s="7"/>
       <c r="O46" s="2"/>
     </row>
     <row r="47" spans="3:15">
@@ -6321,9 +6219,7 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N47" s="7"/>
       <c r="O47" s="2"/>
     </row>
     <row r="48" spans="3:15">
@@ -6348,9 +6244,7 @@
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N48" s="7"/>
       <c r="O48" s="2"/>
     </row>
     <row r="49" spans="3:15">
@@ -6375,9 +6269,7 @@
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N49" s="7"/>
       <c r="O49" s="2"/>
     </row>
     <row r="50" spans="3:15">
@@ -6402,9 +6294,7 @@
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N50" s="7"/>
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="3:15">
@@ -6429,9 +6319,7 @@
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N51" s="7"/>
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="3:15" ht="15">
@@ -6439,7 +6327,7 @@
         <v>51</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="5"/>
@@ -6450,9 +6338,7 @@
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N52" s="7"/>
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="3:15">
@@ -6477,9 +6363,7 @@
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="N53" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N53" s="7"/>
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="3:15">
@@ -6504,9 +6388,7 @@
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N54" s="7"/>
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="3:15">
@@ -6535,9 +6417,7 @@
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N55" s="7"/>
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="3:15">
@@ -6566,9 +6446,7 @@
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N56" s="7"/>
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="3:15">
@@ -6593,9 +6471,7 @@
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N57" s="7"/>
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="3:15">
@@ -6615,16 +6491,14 @@
         <v>2</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
-      <c r="N58" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N58" s="7"/>
       <c r="O58" s="2"/>
     </row>
     <row r="59" spans="3:15">
@@ -6653,9 +6527,7 @@
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
-      <c r="N59" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N59" s="7"/>
       <c r="O59" s="2"/>
     </row>
     <row r="60" spans="3:15">
@@ -6680,9 +6552,7 @@
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
       <c r="M60" s="5"/>
-      <c r="N60" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N60" s="7"/>
       <c r="O60" s="2"/>
     </row>
     <row r="61" spans="3:15">
@@ -6707,9 +6577,7 @@
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
-      <c r="N61" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N61" s="7"/>
       <c r="O61" s="2"/>
     </row>
     <row r="62" spans="3:15">
@@ -6734,9 +6602,7 @@
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
-      <c r="N62" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N62" s="7"/>
       <c r="O62" s="2"/>
     </row>
     <row r="63" spans="3:15">
@@ -6761,9 +6627,7 @@
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
-      <c r="N63" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N63" s="7"/>
       <c r="O63" s="2"/>
     </row>
     <row r="64" spans="3:15">
@@ -6788,9 +6652,7 @@
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
-      <c r="N64" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N64" s="7"/>
       <c r="O64" s="2"/>
     </row>
     <row r="65" spans="3:15" ht="15">
@@ -6798,7 +6660,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E65" s="11"/>
       <c r="F65" s="5"/>
@@ -6809,9 +6671,7 @@
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
-      <c r="N65" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N65" s="7"/>
       <c r="O65" s="2"/>
     </row>
     <row r="66" spans="3:15">
@@ -6822,12 +6682,12 @@
         <v>102</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I66" s="5" t="s">
         <v>823</v>
@@ -6838,9 +6698,7 @@
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
-      <c r="N66" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N66" s="7"/>
       <c r="O66" s="2"/>
     </row>
     <row r="67" spans="3:15">
@@ -6851,15 +6709,15 @@
         <v>102</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J67" s="5" t="b">
         <v>1</v>
@@ -6867,9 +6725,7 @@
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
-      <c r="N67" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N67" s="7"/>
       <c r="O67" s="2"/>
     </row>
     <row r="68" spans="3:15">
@@ -6880,15 +6736,15 @@
         <v>102</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F68" s="5"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="J68" s="5" t="b">
         <v>1</v>
@@ -6896,9 +6752,7 @@
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
-      <c r="N68" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N68" s="7"/>
       <c r="O68" s="2"/>
     </row>
     <row r="69" spans="3:15">
@@ -6909,15 +6763,15 @@
         <v>102</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J69" s="5" t="b">
         <v>1</v>
@@ -6925,9 +6779,7 @@
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
-      <c r="N69" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N69" s="7"/>
       <c r="O69" s="2"/>
     </row>
     <row r="70" spans="3:15">
@@ -6938,15 +6790,15 @@
         <v>102</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J70" s="5" t="b">
         <v>1</v>
@@ -6954,9 +6806,7 @@
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
-      <c r="N70" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N70" s="7"/>
       <c r="O70" s="2"/>
     </row>
     <row r="71" spans="3:15">
@@ -6967,15 +6817,15 @@
         <v>102</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J71" s="5" t="b">
         <v>1</v>
@@ -6983,9 +6833,7 @@
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
-      <c r="N71" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N71" s="7"/>
       <c r="O71" s="2"/>
     </row>
     <row r="72" spans="3:15">
@@ -6996,12 +6844,12 @@
         <v>102</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I72" s="5" t="s">
         <v>346</v>
@@ -7012,9 +6860,7 @@
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
       <c r="M72" s="5"/>
-      <c r="N72" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N72" s="7"/>
       <c r="O72" s="2"/>
     </row>
     <row r="73" spans="3:15">
@@ -7025,12 +6871,12 @@
         <v>102</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I73" s="5" t="s">
         <v>49</v>
@@ -7041,9 +6887,7 @@
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
       <c r="M73" s="5"/>
-      <c r="N73" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N73" s="7"/>
       <c r="O73" s="2"/>
     </row>
     <row r="74" spans="3:15">
@@ -7054,15 +6898,15 @@
         <v>102</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F74" s="5"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J74" s="5" t="b">
         <v>1</v>
@@ -7070,9 +6914,7 @@
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
       <c r="M74" s="5"/>
-      <c r="N74" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N74" s="7"/>
       <c r="O74" s="2"/>
     </row>
     <row r="75" spans="3:15">
@@ -7083,15 +6925,15 @@
         <v>102</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F75" s="5"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J75" s="5" t="b">
         <v>1</v>
@@ -7099,9 +6941,7 @@
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
       <c r="M75" s="5"/>
-      <c r="N75" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N75" s="7"/>
       <c r="O75" s="2"/>
     </row>
     <row r="76" spans="3:15">
@@ -7112,15 +6952,15 @@
         <v>102</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F76" s="5"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J76" s="5" t="b">
         <v>1</v>
@@ -7128,9 +6968,7 @@
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
       <c r="M76" s="5"/>
-      <c r="N76" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N76" s="7"/>
       <c r="O76" s="2"/>
     </row>
     <row r="77" spans="3:15">
@@ -7141,15 +6979,15 @@
         <v>102</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="J77" s="5" t="b">
         <v>1</v>
@@ -7157,9 +6995,7 @@
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="5"/>
-      <c r="N77" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N77" s="7"/>
       <c r="O77" s="2"/>
     </row>
     <row r="78" spans="3:15">
@@ -7170,15 +7006,15 @@
         <v>102</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J78" s="5" t="b">
         <v>1</v>
@@ -7186,9 +7022,7 @@
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="5"/>
-      <c r="N78" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N78" s="7"/>
       <c r="O78" s="2"/>
     </row>
     <row r="79" spans="3:15">
@@ -7199,15 +7033,15 @@
         <v>102</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J79" s="5" t="b">
         <v>1</v>
@@ -7215,9 +7049,7 @@
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="5"/>
-      <c r="N79" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N79" s="7"/>
       <c r="O79" s="2"/>
     </row>
     <row r="80" spans="3:15" ht="15">
@@ -7225,7 +7057,7 @@
         <v>79</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E80" s="11"/>
       <c r="F80" s="5"/>
@@ -7236,9 +7068,7 @@
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="5"/>
-      <c r="N80" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N80" s="7"/>
       <c r="O80" s="2"/>
     </row>
     <row r="81" spans="3:15">
@@ -7263,9 +7093,7 @@
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="5"/>
-      <c r="N81" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N81" s="7"/>
       <c r="O81" s="2"/>
     </row>
     <row r="82" spans="3:15">
@@ -7290,9 +7118,7 @@
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="5"/>
-      <c r="N82" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N82" s="7"/>
       <c r="O82" s="2"/>
     </row>
     <row r="83" spans="3:15">
@@ -7321,9 +7147,7 @@
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="5"/>
-      <c r="N83" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N83" s="7"/>
       <c r="O83" s="2"/>
     </row>
     <row r="84" spans="3:15">
@@ -7352,9 +7176,7 @@
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="5"/>
-      <c r="N84" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N84" s="7"/>
       <c r="O84" s="2"/>
     </row>
     <row r="85" spans="3:15">
@@ -7379,9 +7201,7 @@
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="5"/>
-      <c r="N85" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N85" s="7"/>
       <c r="O85" s="2"/>
     </row>
     <row r="86" spans="3:15">
@@ -7401,16 +7221,14 @@
         <v>2</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="5"/>
-      <c r="N86" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N86" s="7"/>
       <c r="O86" s="2"/>
     </row>
     <row r="87" spans="3:15">
@@ -7439,9 +7257,7 @@
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="5"/>
-      <c r="N87" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N87" s="7"/>
       <c r="O87" s="2"/>
     </row>
     <row r="88" spans="3:15">
@@ -7466,9 +7282,7 @@
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="5"/>
-      <c r="N88" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N88" s="7"/>
       <c r="O88" s="2"/>
     </row>
     <row r="89" spans="3:15">
@@ -7493,9 +7307,7 @@
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="5"/>
-      <c r="N89" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N89" s="7"/>
       <c r="O89" s="2"/>
     </row>
     <row r="90" spans="3:15">
@@ -7520,9 +7332,7 @@
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="5"/>
-      <c r="N90" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N90" s="7"/>
       <c r="O90" s="2"/>
     </row>
     <row r="91" spans="3:15">
@@ -7547,9 +7357,7 @@
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="5"/>
-      <c r="N91" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N91" s="7"/>
       <c r="O91" s="2"/>
     </row>
     <row r="92" spans="3:15">
@@ -7574,9 +7382,7 @@
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
       <c r="M92" s="5"/>
-      <c r="N92" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N92" s="7"/>
       <c r="O92" s="2"/>
     </row>
     <row r="93" spans="3:15" ht="15">
@@ -7584,7 +7390,7 @@
         <v>92</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E93" s="11"/>
       <c r="F93" s="5"/>
@@ -7595,9 +7401,7 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="5"/>
-      <c r="N93" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N93" s="7"/>
       <c r="O93" s="2"/>
     </row>
     <row r="94" spans="3:15">
@@ -7608,15 +7412,15 @@
         <v>102</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="J94" s="5" t="b">
         <v>1</v>
@@ -7624,9 +7428,7 @@
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="5"/>
-      <c r="N94" s="7" t="s">
-        <v>838</v>
-      </c>
+      <c r="N94" s="7"/>
       <c r="O94" s="2"/>
     </row>
     <row r="95" spans="3:15">
@@ -7637,15 +7439,15 @@
         <v>102</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F95" s="5"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J95" s="5" t="b">
         <v>1</v>
@@ -7653,9 +7455,7 @@
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
       <c r="M95" s="5"/>
-      <c r="N95" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N95" s="7"/>
       <c r="O95" s="2"/>
     </row>
     <row r="96" spans="3:15">
@@ -7666,15 +7466,15 @@
         <v>102</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="J96" s="5" t="b">
         <v>1</v>
@@ -7682,9 +7482,7 @@
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
       <c r="M96" s="5"/>
-      <c r="N96" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N96" s="7"/>
       <c r="O96" s="2"/>
     </row>
     <row r="97" spans="3:15">
@@ -7695,15 +7493,15 @@
         <v>102</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F97" s="5"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J97" s="5" t="b">
         <v>1</v>
@@ -7711,9 +7509,7 @@
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
       <c r="M97" s="5"/>
-      <c r="N97" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N97" s="7"/>
       <c r="O97" s="2"/>
     </row>
     <row r="98" spans="3:15">
@@ -7724,15 +7520,15 @@
         <v>102</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J98" s="5" t="b">
         <v>1</v>
@@ -7740,9 +7536,7 @@
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
       <c r="M98" s="5"/>
-      <c r="N98" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N98" s="7"/>
       <c r="O98" s="2"/>
     </row>
     <row r="99" spans="3:15">
@@ -7753,15 +7547,15 @@
         <v>102</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F99" s="5"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J99" s="5" t="b">
         <v>1</v>
@@ -7769,9 +7563,7 @@
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
       <c r="M99" s="5"/>
-      <c r="N99" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N99" s="7"/>
       <c r="O99" s="2"/>
     </row>
     <row r="100" spans="3:15">
@@ -7782,12 +7574,12 @@
         <v>102</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F100" s="5"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I100" s="5" t="s">
         <v>346</v>
@@ -7798,9 +7590,7 @@
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="5"/>
-      <c r="N100" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N100" s="7"/>
       <c r="O100" s="2"/>
     </row>
     <row r="101" spans="3:15">
@@ -7811,12 +7601,12 @@
         <v>102</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I101" s="5" t="s">
         <v>49</v>
@@ -7827,9 +7617,7 @@
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="5"/>
-      <c r="N101" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N101" s="7"/>
       <c r="O101" s="2"/>
     </row>
     <row r="102" spans="3:15">
@@ -7840,15 +7628,15 @@
         <v>102</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F102" s="5"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J102" s="5" t="b">
         <v>1</v>
@@ -7856,9 +7644,7 @@
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="5"/>
-      <c r="N102" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N102" s="7"/>
       <c r="O102" s="2"/>
     </row>
     <row r="103" spans="3:15">
@@ -7869,15 +7655,15 @@
         <v>102</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J103" s="5" t="b">
         <v>1</v>
@@ -7885,9 +7671,7 @@
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="5"/>
-      <c r="N103" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N103" s="7"/>
       <c r="O103" s="2"/>
     </row>
     <row r="104" spans="3:15">
@@ -7898,15 +7682,15 @@
         <v>102</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F104" s="5"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J104" s="5" t="b">
         <v>1</v>
@@ -7914,9 +7698,7 @@
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="5"/>
-      <c r="N104" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N104" s="7"/>
       <c r="O104" s="2"/>
     </row>
     <row r="105" spans="3:15">
@@ -7927,15 +7709,15 @@
         <v>102</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="J105" s="5" t="b">
         <v>1</v>
@@ -7943,9 +7725,7 @@
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="5"/>
-      <c r="N105" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N105" s="7"/>
       <c r="O105" s="2"/>
     </row>
     <row r="106" spans="3:15">
@@ -7956,15 +7736,15 @@
         <v>102</v>
       </c>
       <c r="E106" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F106" s="5"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J106" s="5" t="b">
         <v>1</v>
@@ -7972,9 +7752,7 @@
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="5"/>
-      <c r="N106" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N106" s="7"/>
       <c r="O106" s="2"/>
     </row>
     <row r="107" spans="3:15">
@@ -7985,15 +7763,15 @@
         <v>102</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F107" s="5"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J107" s="5" t="b">
         <v>1</v>
@@ -8001,9 +7779,7 @@
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
       <c r="M107" s="5"/>
-      <c r="N107" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N107" s="7"/>
       <c r="O107" s="2"/>
     </row>
     <row r="108" spans="3:15" ht="15">
@@ -8011,7 +7787,7 @@
         <v>107</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="5"/>
@@ -8022,9 +7798,7 @@
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
       <c r="M108" s="5"/>
-      <c r="N108" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N108" s="7"/>
       <c r="O108" s="2"/>
     </row>
     <row r="109" spans="3:15">
@@ -8049,9 +7823,7 @@
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
       <c r="M109" s="5"/>
-      <c r="N109" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N109" s="7"/>
       <c r="O109" s="2"/>
     </row>
     <row r="110" spans="3:15">
@@ -8076,9 +7848,7 @@
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="5"/>
-      <c r="N110" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N110" s="7"/>
       <c r="O110" s="2"/>
     </row>
     <row r="111" spans="3:15">
@@ -8107,9 +7877,7 @@
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="5"/>
-      <c r="N111" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N111" s="7"/>
       <c r="O111" s="2"/>
     </row>
     <row r="112" spans="3:15">
@@ -8138,9 +7906,7 @@
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="5"/>
-      <c r="N112" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N112" s="7"/>
       <c r="O112" s="2"/>
     </row>
     <row r="113" spans="3:15">
@@ -8165,9 +7931,7 @@
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="5"/>
-      <c r="N113" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N113" s="7"/>
       <c r="O113" s="2"/>
     </row>
     <row r="114" spans="3:15">
@@ -8187,16 +7951,14 @@
         <v>2</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I114" s="5"/>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
       <c r="M114" s="5"/>
-      <c r="N114" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N114" s="7"/>
       <c r="O114" s="2"/>
     </row>
     <row r="115" spans="3:15">
@@ -8225,9 +7987,7 @@
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="5"/>
-      <c r="N115" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N115" s="7"/>
       <c r="O115" s="2"/>
     </row>
     <row r="116" spans="3:15">
@@ -8252,9 +8012,7 @@
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="5"/>
-      <c r="N116" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N116" s="7"/>
       <c r="O116" s="2"/>
     </row>
     <row r="117" spans="3:15">
@@ -8279,9 +8037,7 @@
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
       <c r="M117" s="5"/>
-      <c r="N117" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N117" s="7"/>
       <c r="O117" s="2"/>
     </row>
     <row r="118" spans="3:15">
@@ -8306,9 +8062,7 @@
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="5"/>
-      <c r="N118" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N118" s="7"/>
       <c r="O118" s="2"/>
     </row>
     <row r="119" spans="3:15">
@@ -8333,9 +8087,7 @@
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
       <c r="M119" s="5"/>
-      <c r="N119" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N119" s="7"/>
       <c r="O119" s="2"/>
     </row>
     <row r="120" spans="3:15">
@@ -8360,9 +8112,7 @@
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
       <c r="M120" s="5"/>
-      <c r="N120" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N120" s="7"/>
       <c r="O120" s="2"/>
     </row>
     <row r="121" spans="3:15" ht="15">
@@ -8370,7 +8120,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="5"/>
@@ -8381,9 +8131,7 @@
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
-      <c r="N121" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N121" s="7"/>
       <c r="O121" s="2"/>
     </row>
     <row r="122" spans="3:15">
@@ -8394,15 +8142,15 @@
         <v>102</v>
       </c>
       <c r="E122" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F122" s="5"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="J122" s="5" t="b">
         <v>1</v>
@@ -8410,9 +8158,7 @@
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
       <c r="M122" s="5"/>
-      <c r="N122" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N122" s="7"/>
       <c r="O122" s="2"/>
     </row>
     <row r="123" spans="3:15">
@@ -8423,15 +8169,15 @@
         <v>102</v>
       </c>
       <c r="E123" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F123" s="5"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="J123" s="5" t="b">
         <v>1</v>
@@ -8439,9 +8185,7 @@
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
       <c r="M123" s="5"/>
-      <c r="N123" s="7" t="s">
-        <v>838</v>
-      </c>
+      <c r="N123" s="7"/>
       <c r="O123" s="2"/>
     </row>
     <row r="124" spans="3:15">
@@ -8452,15 +8196,15 @@
         <v>102</v>
       </c>
       <c r="E124" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F124" s="5"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="J124" s="5" t="b">
         <v>1</v>
@@ -8468,9 +8212,7 @@
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="5"/>
-      <c r="N124" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N124" s="7"/>
       <c r="O124" s="2"/>
     </row>
     <row r="125" spans="3:15">
@@ -8481,15 +8223,15 @@
         <v>102</v>
       </c>
       <c r="E125" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="J125" s="5" t="b">
         <v>1</v>
@@ -8497,9 +8239,7 @@
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="5"/>
-      <c r="N125" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N125" s="7"/>
       <c r="O125" s="2"/>
     </row>
     <row r="126" spans="3:15">
@@ -8510,15 +8250,15 @@
         <v>102</v>
       </c>
       <c r="E126" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F126" s="5"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="J126" s="5" t="b">
         <v>1</v>
@@ -8526,9 +8266,7 @@
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="5"/>
-      <c r="N126" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N126" s="7"/>
       <c r="O126" s="2"/>
     </row>
     <row r="127" spans="3:15">
@@ -8539,15 +8277,15 @@
         <v>102</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="J127" s="5" t="b">
         <v>1</v>
@@ -8555,9 +8293,7 @@
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
       <c r="M127" s="5"/>
-      <c r="N127" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N127" s="7"/>
       <c r="O127" s="2"/>
     </row>
     <row r="128" spans="3:15">
@@ -8568,12 +8304,12 @@
         <v>102</v>
       </c>
       <c r="E128" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I128" s="5" t="s">
         <v>346</v>
@@ -8584,9 +8320,7 @@
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
       <c r="M128" s="5"/>
-      <c r="N128" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N128" s="7"/>
       <c r="O128" s="2"/>
     </row>
     <row r="129" spans="3:15">
@@ -8597,12 +8331,12 @@
         <v>102</v>
       </c>
       <c r="E129" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F129" s="5"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I129" s="5" t="s">
         <v>49</v>
@@ -8613,9 +8347,7 @@
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
       <c r="M129" s="5"/>
-      <c r="N129" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N129" s="7"/>
       <c r="O129" s="2"/>
     </row>
     <row r="130" spans="3:15">
@@ -8626,15 +8358,15 @@
         <v>102</v>
       </c>
       <c r="E130" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="J130" s="5" t="b">
         <v>1</v>
@@ -8642,9 +8374,7 @@
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
       <c r="M130" s="5"/>
-      <c r="N130" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N130" s="7"/>
       <c r="O130" s="2"/>
     </row>
     <row r="131" spans="3:15">
@@ -8655,15 +8385,15 @@
         <v>102</v>
       </c>
       <c r="E131" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="J131" s="5" t="b">
         <v>1</v>
@@ -8671,9 +8401,7 @@
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="5"/>
-      <c r="N131" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N131" s="7"/>
       <c r="O131" s="2"/>
     </row>
     <row r="132" spans="3:15">
@@ -8684,15 +8412,15 @@
         <v>102</v>
       </c>
       <c r="E132" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F132" s="5"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="J132" s="5" t="b">
         <v>1</v>
@@ -8700,9 +8428,7 @@
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
       <c r="M132" s="5"/>
-      <c r="N132" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N132" s="7"/>
       <c r="O132" s="2"/>
     </row>
     <row r="133" spans="3:15">
@@ -8713,15 +8439,15 @@
         <v>102</v>
       </c>
       <c r="E133" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F133" s="5"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="J133" s="5" t="b">
         <v>1</v>
@@ -8729,9 +8455,7 @@
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
       <c r="M133" s="5"/>
-      <c r="N133" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N133" s="7"/>
       <c r="O133" s="2"/>
     </row>
     <row r="134" spans="3:15">
@@ -8742,15 +8466,15 @@
         <v>102</v>
       </c>
       <c r="E134" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F134" s="5"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="J134" s="5" t="b">
         <v>1</v>
@@ -8758,9 +8482,7 @@
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
       <c r="M134" s="5"/>
-      <c r="N134" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N134" s="7"/>
       <c r="O134" s="2"/>
     </row>
     <row r="135" spans="3:15">
@@ -8771,15 +8493,15 @@
         <v>102</v>
       </c>
       <c r="E135" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J135" s="5" t="b">
         <v>1</v>
@@ -8787,9 +8509,7 @@
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
       <c r="M135" s="5"/>
-      <c r="N135" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N135" s="7"/>
       <c r="O135" s="2"/>
     </row>
     <row r="136" spans="3:15" ht="15">
@@ -8808,9 +8528,7 @@
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
       <c r="M136" s="5"/>
-      <c r="N136" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N136" s="7"/>
       <c r="O136" s="2"/>
     </row>
     <row r="137" spans="3:15">
@@ -8833,9 +8551,7 @@
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
       <c r="M137" s="5"/>
-      <c r="N137" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N137" s="7"/>
       <c r="O137" s="2"/>
     </row>
     <row r="138" spans="3:15">
@@ -8860,9 +8576,7 @@
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
       <c r="M138" s="5"/>
-      <c r="N138" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N138" s="7"/>
       <c r="O138" s="2"/>
     </row>
     <row r="139" spans="3:15">
@@ -8887,9 +8601,7 @@
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
       <c r="M139" s="5"/>
-      <c r="N139" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N139" s="7"/>
       <c r="O139" s="2"/>
     </row>
     <row r="140" spans="3:15">
@@ -8897,10 +8609,10 @@
         <v>139</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E140" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F140" s="5" t="s">
         <v>279</v>
@@ -8909,16 +8621,14 @@
         <v>108</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
       <c r="M140" s="5"/>
-      <c r="N140" s="16" t="s">
-        <v>826</v>
-      </c>
+      <c r="N140" s="16"/>
       <c r="O140" s="2"/>
     </row>
     <row r="141" spans="3:15" ht="14.25">
@@ -8926,10 +8636,10 @@
         <v>140</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E141" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>24</v>
@@ -8943,9 +8653,7 @@
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
       <c r="M141" s="5"/>
-      <c r="N141" s="16" t="s">
-        <v>826</v>
-      </c>
+      <c r="N141" s="16"/>
       <c r="O141" s="2"/>
     </row>
     <row r="142" spans="3:15">
@@ -8953,7 +8661,7 @@
         <v>141</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>649</v>
@@ -8970,9 +8678,7 @@
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
       <c r="M142" s="5"/>
-      <c r="N142" s="16" t="s">
-        <v>826</v>
-      </c>
+      <c r="N142" s="16"/>
       <c r="O142" s="2"/>
     </row>
     <row r="143" spans="3:15">
@@ -8980,10 +8686,10 @@
         <v>142</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E143" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>19</v>
@@ -8997,9 +8703,7 @@
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
       <c r="M143" s="5"/>
-      <c r="N143" s="7" t="s">
-        <v>826</v>
-      </c>
+      <c r="N143" s="7"/>
       <c r="O143" s="2"/>
     </row>
     <row r="144" spans="3:15">
